--- a/medicine/Enfance/Jardin_d'enfants/Jardin_d'enfants.xlsx
+++ b/medicine/Enfance/Jardin_d'enfants/Jardin_d'enfants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_d%27enfants</t>
+          <t>Jardin_d'enfants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_d%27enfants</t>
+          <t>Jardin_d'enfants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En principe, un jardin d’enfants accueille des enfants qui sont autonomes pour les besoins de la vie quotidienne : manger, boire, aller aux toilettes. Il se distingue de l’école maternelle en accueillant des enfants plus jeunes, mais ce n’est ni une crèche ni une garderie.
 Dans le système privé et public en France et dans d’autres pays (ainsi, les Kindergarten, en Allemagne et en Suisse), il peut équivaloir à l’école maternelle en France, c’est-à-dire en dessous de sept ans.
